--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC15_Verify_CheckOut_MultiShip.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC15_Verify_CheckOut_MultiShip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796947F0-473E-44BC-96B9-8D7E9D5FBAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F8396C-1709-4E95-8CF5-B3E7BBA69D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC15_Verify_CheckOut_MultiShip" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>TestCase</t>
   </si>
@@ -181,21 +181,12 @@
     <t>Searchbox</t>
   </si>
   <si>
-    <t>Dr. Scholl's Giorgie Memory Foam Flats</t>
-  </si>
-  <si>
     <t>PDP_ShipTO</t>
   </si>
   <si>
     <t>PDP_StorePickUP</t>
   </si>
   <si>
-    <t>PDPSize_CheckoutSingleShip</t>
-  </si>
-  <si>
-    <t>PDP_SaveContinue</t>
-  </si>
-  <si>
     <t>ProccedTOCheckout</t>
   </si>
   <si>
@@ -250,10 +241,10 @@
     <t>Multiship_container</t>
   </si>
   <si>
-    <t>PickUpStore_continuePayment</t>
-  </si>
-  <si>
     <t>LINK</t>
+  </si>
+  <si>
+    <t>PickUpStore_continuePayment1</t>
   </si>
 </sst>
 </file>
@@ -675,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -709,7 +700,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -850,7 +841,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -858,41 +849,39 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
@@ -902,7 +891,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -926,75 +915,71 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
@@ -1002,8 +987,8 @@
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -1012,67 +997,67 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>57</v>
@@ -1086,8 +1071,8 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
@@ -1095,156 +1080,106 @@
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>13</v>
+      <c r="B34" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="5" t="s">
-        <v>18</v>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="5" t="s">
-        <v>18</v>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1259,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1353,8 +1288,8 @@
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
+      <c r="B11" s="3">
+        <v>8014146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1455,7 +1390,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1463,7 +1398,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1471,7 +1406,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <v>123</v>
@@ -1479,23 +1414,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1503,7 +1438,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1511,7 +1446,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1519,15 +1454,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1543,21 +1478,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1754,24 +1674,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1788,4 +1706,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC15_Verify_CheckOut_MultiShip.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC15_Verify_CheckOut_MultiShip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F8396C-1709-4E95-8CF5-B3E7BBA69D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796947F0-473E-44BC-96B9-8D7E9D5FBAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC15_Verify_CheckOut_MultiShip" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>TestCase</t>
   </si>
@@ -181,12 +181,21 @@
     <t>Searchbox</t>
   </si>
   <si>
+    <t>Dr. Scholl's Giorgie Memory Foam Flats</t>
+  </si>
+  <si>
     <t>PDP_ShipTO</t>
   </si>
   <si>
     <t>PDP_StorePickUP</t>
   </si>
   <si>
+    <t>PDPSize_CheckoutSingleShip</t>
+  </si>
+  <si>
+    <t>PDP_SaveContinue</t>
+  </si>
+  <si>
     <t>ProccedTOCheckout</t>
   </si>
   <si>
@@ -241,10 +250,10 @@
     <t>Multiship_container</t>
   </si>
   <si>
+    <t>PickUpStore_continuePayment</t>
+  </si>
+  <si>
     <t>LINK</t>
-  </si>
-  <si>
-    <t>PickUpStore_continuePayment1</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -700,7 +709,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -841,7 +850,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -849,39 +858,41 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
@@ -891,7 +902,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -915,71 +926,75 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
@@ -987,8 +1002,8 @@
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -997,67 +1012,67 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>57</v>
@@ -1071,8 +1086,8 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
@@ -1080,106 +1095,156 @@
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="5" t="s">
-        <v>18</v>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
-      <c r="B34" s="5" t="s">
-        <v>18</v>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
+      <c r="B35" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1194,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1288,8 +1353,8 @@
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3">
-        <v>8014146</v>
+      <c r="B11" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1390,7 +1455,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1398,7 +1463,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1406,7 +1471,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
         <v>123</v>
@@ -1414,23 +1479,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1438,7 +1503,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1446,7 +1511,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1454,15 +1519,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1478,6 +1543,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1674,22 +1754,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1706,21 +1788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>